--- a/ZZ_Materials/Python Testing TOC Updated.xlsx
+++ b/ZZ_Materials/Python Testing TOC Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\PythonClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\PythonClass\ZZ_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F8EC15-2839-40AB-9452-42D9BEB61B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33233E4B-7ED0-4BAF-BA32-B485F5E49584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
   </bookViews>
